--- a/utils/excel_files/process_source.xlsx
+++ b/utils/excel_files/process_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navid\OneDrive\Desktop\MIT\cript-excel-uploader\utils\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907907FB-A8DB-4FB1-B9FE-C460D1D29251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29D7FCC-E435-4AB6-B501-1C04FCBF4ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02635A87-A24C-4815-8E93-910252CAA5BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{02635A87-A24C-4815-8E93-910252CAA5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="427">
   <si>
     <t>Name</t>
   </si>
@@ -716,288 +716,153 @@
     <t>afm</t>
   </si>
   <si>
-    <t>atomic force microscopy</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_A</t>
   </si>
   <si>
-    <t>Density test: density of uncored foam by calculation from the mass and volume of the specimen</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_B1</t>
   </si>
   <si>
-    <t>Deflection based Indentation Force Deflection (IFD/ILD): measures the indentation force deflection of urethane foam and foam-like substances</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_B2</t>
   </si>
   <si>
-    <t>Indentation Residual Gauge Length (IRGL): determine how thick the padding is after being loaded by an average weight person</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_C</t>
   </si>
   <si>
-    <t>Compression Force Deflection (CFD): measures the force necessary to produce a 50 % compression over the entire top area of the foam specimen</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_D</t>
   </si>
   <si>
-    <t>CONSTANT DEFLECTION COMPRESSION SET TEST: deflecting the foam specimen to a specified deflection, exposing it to specified conditions of time and temperature and measuring the change in the thickness of the specimen after a specified recovery period.</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_E</t>
   </si>
   <si>
-    <t>Tensile Strength and Elongation: measure the tensile strength and deformation properties of flexible cellular polymeric materials at a constant test speed, or rate of extension (CRE) through failure</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_F</t>
   </si>
   <si>
-    <t>Tear Resistance Strength: tear propagation resistance of foam</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_G</t>
   </si>
   <si>
-    <t>AIR FLOW TEST: measures the ease with which air passes through a cellular structure</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_H</t>
   </si>
   <si>
-    <t>RESILIENCE (BALL REBOUND) TEST: dropping a steel ball on a foam specimen and noting the height of rebound</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I1</t>
   </si>
   <si>
-    <t>Static Force Loss Test at Constant Deflection: (1) a loss of IFD, (2) a loss of thickness, and (3) structural breakdown by visual examination.</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I2</t>
   </si>
   <si>
-    <t>Dynamic Fatigue by Roller Shear at Constant Force: procedure fatigues the specimen dynamically at a constant force, deflecting the material both vertically and laterally</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I3</t>
   </si>
   <si>
-    <t>Dynamic Fatigue Test by Constant Force Pounding: loss of force support at 40 % IFD, loss in thickness, and the structural breakdown as assessed by visual inspection</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I4</t>
   </si>
   <si>
-    <t>Dynamic Fatigue Test for Carpet Cushion: (1) retention of load bearing (65 % IFD), (2) a loss in thickness, and (3) structural breakdown as addressed by visual inspection</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_I5</t>
   </si>
   <si>
-    <t>Dynamic Fatigue Test, Constant Deflection Pounding</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_J</t>
   </si>
   <si>
-    <t>STEAM AUTOCLAVE AGING: treating the foam specimen in a low-pressure steam autoclave and observing the effects on the properties of the foam specimen</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_K</t>
   </si>
   <si>
-    <t>DRY HEAT AGING: exposing foam specimens in an air-circulating oven and observing the effect on the properties of the foam</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_L</t>
   </si>
   <si>
-    <t>WET HEAT AGING: exposing foam specimens in an environmental chamber and observing the effect on the properties of the foam.</t>
-  </si>
-  <si>
     <t>ASTM_D3574_Test_M</t>
   </si>
   <si>
-    <t>Recovery Time of Viscoelastic or Memory Foam: determine the recovery time of slow recovery (memory) foams</t>
-  </si>
-  <si>
     <t>calorimetry</t>
   </si>
   <si>
     <t>chrom</t>
   </si>
   <si>
-    <t>general chromatography</t>
-  </si>
-  <si>
     <t>comp</t>
   </si>
   <si>
-    <t>computation or simulation</t>
-  </si>
-  <si>
     <t>confocal</t>
   </si>
   <si>
-    <t>confocal microscopy</t>
-  </si>
-  <si>
     <t>cryoscopy</t>
   </si>
   <si>
     <t>dls</t>
   </si>
   <si>
-    <t>dynamic light scattering</t>
-  </si>
-  <si>
     <t>dma</t>
   </si>
   <si>
-    <t>dynamic mechanical analysis</t>
-  </si>
-  <si>
     <t>dsc</t>
   </si>
   <si>
-    <t>differential scanning calorimetry</t>
-  </si>
-  <si>
     <t>ebullioscopy</t>
   </si>
   <si>
     <t>gc</t>
   </si>
   <si>
-    <t>gas chromatography</t>
-  </si>
-  <si>
     <t>ir</t>
   </si>
   <si>
-    <t>infrared spectroscopy</t>
-  </si>
-  <si>
     <t>ls</t>
   </si>
   <si>
-    <t>static light scattering</t>
-  </si>
-  <si>
     <t>maldi</t>
   </si>
   <si>
-    <t>matrix assisted laser desorption ionization</t>
-  </si>
-  <si>
     <t>mals</t>
   </si>
   <si>
-    <t>multi-angle light scattering</t>
-  </si>
-  <si>
     <t>membrane_osmometry</t>
   </si>
   <si>
-    <t>membrane osmometry</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
-    <t>general mass spectrometry</t>
-  </si>
-  <si>
     <t>near-ir</t>
   </si>
   <si>
     <t>neutron</t>
   </si>
   <si>
-    <t>neutron scattering</t>
-  </si>
-  <si>
     <t>nmr</t>
   </si>
   <si>
-    <t>nuclear magnetic resonance</t>
-  </si>
-  <si>
     <t>osmtic_pres</t>
   </si>
   <si>
-    <t>osmotic pressure</t>
-  </si>
-  <si>
     <t>prescribed</t>
   </si>
   <si>
-    <t>a value that can be defined, (Ex. calculating MW from molecular formula)</t>
-  </si>
-  <si>
     <t>raman</t>
   </si>
   <si>
-    <t>raman spectroscopy</t>
-  </si>
-  <si>
     <t>saxs</t>
   </si>
   <si>
-    <t>small-angle x-ray scattering</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
     <t>sec</t>
   </si>
   <si>
-    <t>size exclusion chromatography / gel permeation chromatography (GPC)</t>
-  </si>
-  <si>
     <t>sec_ir</t>
   </si>
   <si>
-    <t>size exclusion chromatography with on-line infrared spectroscopy</t>
-  </si>
-  <si>
     <t>sec_mals</t>
   </si>
   <si>
-    <t>size exclusion chromatography with on-line multi-angle light scattering</t>
-  </si>
-  <si>
     <t>sec_visco</t>
   </si>
   <si>
-    <t>size exclusion chromatography with on-line viscometry</t>
-  </si>
-  <si>
     <t>sem</t>
   </si>
   <si>
-    <t>scanning electron microscopy</t>
-  </si>
-  <si>
     <t>tem</t>
   </si>
   <si>
-    <t>transmission electron microscopy</t>
-  </si>
-  <si>
     <t>tga</t>
   </si>
   <si>
-    <t>thermogravimetric analysis</t>
-  </si>
-  <si>
     <t>derived_from</t>
   </si>
   <si>
@@ -1455,6 +1320,9 @@
   </si>
   <si>
     <t>ml</t>
+  </si>
+  <si>
+    <t>Mark TRUE if using this method</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1369,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1919,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB5F22-B2F1-4C1B-A107-660781CF501F}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1937,18 +1805,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/process-property-key/", "Process Property")</f>
         <v>Process Property</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2528,17 +2396,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/condition-key/", "Conditions")</f>
         <v>Conditions</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3724,7 +3592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8D7D69-76D0-4360-A978-8907AE43C7A4}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3735,11 +3603,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/property-method/", "Property Methods")</f>
         <v>Property Methods</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3754,399 +3622,399 @@
         <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>294</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4175,11 +4043,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/citation-type/", "Citations")</f>
         <v>Citations</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4191,50 +4059,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4263,11 +4131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/equipment-key/", "Equipments")</f>
         <v>Equipments</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4279,31 +4147,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -4311,442 +4179,442 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="B25" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="B27" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4775,11 +4643,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/ingredient-keyword/", "Ingredient")</f>
         <v>Ingredient</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4791,114 +4659,114 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4932,16 +4800,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>HYPERLINK("https://criptapp.org/keys/quantity-key/", "Quantity")</f>
         <v>Quantity</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4968,7 +4836,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4980,7 +4848,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -4991,7 +4859,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -5003,7 +4871,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -5017,7 +4885,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -5063,7 +4931,7 @@
         <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -5072,10 +4940,10 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="F7" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
